--- a/runs/run358/NotionalETEOutput358.xlsx
+++ b/runs/run358/NotionalETEOutput358.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER0_State_Update</t>
+    <t>Missile_HELLMASKER0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0_483.MISSILE_BRAVER0_483</t>
+    <t>MISSILE_HELLMASKER0_178.MISSILE_HELLMASKER0_178</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0</t>
+    <t>MISSILE_HELLMASKER0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1564.071988821163</v>
+        <v>-1494.419871872981</v>
       </c>
       <c r="J2">
-        <v>2062.380498178834</v>
+        <v>1927.930587547073</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1482.977844713347</v>
+        <v>-1467.900326579728</v>
       </c>
       <c r="J3">
-        <v>1875.372384149081</v>
+        <v>2024.575435069562</v>
       </c>
       <c r="K3">
-        <v>298.8096992534513</v>
+        <v>316.4622234403015</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1395.221132991941</v>
+        <v>-1479.352793070994</v>
       </c>
       <c r="J4">
-        <v>1932.403312053259</v>
+        <v>1897.694986728545</v>
       </c>
       <c r="K4">
-        <v>614.7577536280031</v>
+        <v>570.0175160469757</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1355.437229221509</v>
+        <v>-1360.934555979068</v>
       </c>
       <c r="J5">
-        <v>1795.771199236684</v>
+        <v>1900.836660563948</v>
       </c>
       <c r="K5">
-        <v>863.3381354900613</v>
+        <v>857.6519193620502</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1371.999485085754</v>
+        <v>-1349.67064231491</v>
       </c>
       <c r="J6">
-        <v>1804.858393788443</v>
+        <v>1827.273923690311</v>
       </c>
       <c r="K6">
-        <v>1090.31483114171</v>
+        <v>1076.574155493705</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1294.667343802631</v>
+        <v>-1408.722255457167</v>
       </c>
       <c r="J7">
-        <v>1801.167157736259</v>
+        <v>1674.352613926257</v>
       </c>
       <c r="K7">
-        <v>1399.081197083294</v>
+        <v>1352.427036414674</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1346.331177225286</v>
+        <v>-1329.13454579964</v>
       </c>
       <c r="J8">
-        <v>1725.563162870246</v>
+        <v>1651.303623470338</v>
       </c>
       <c r="K8">
-        <v>1532.593965542099</v>
+        <v>1543.121475116673</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-97.16456141516385</v>
+        <v>-97.53373917738737</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1293.198124640959</v>
+        <v>-1277.922929204886</v>
       </c>
       <c r="J9">
-        <v>1605.331709258127</v>
+        <v>1634.449150172175</v>
       </c>
       <c r="K9">
-        <v>1779.312845936142</v>
+        <v>1780.159795204941</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>215.8922830615548</v>
+        <v>216.3191456431403</v>
       </c>
       <c r="G10">
-        <v>-86.47580076018173</v>
+        <v>-87.01240620515338</v>
       </c>
       <c r="H10">
-        <v>886.1970853843696</v>
+        <v>897.9639358950765</v>
       </c>
       <c r="I10">
-        <v>-1217.946401976227</v>
+        <v>-1188.296810651949</v>
       </c>
       <c r="J10">
-        <v>1628.854340593139</v>
+        <v>1603.30690436048</v>
       </c>
       <c r="K10">
-        <v>1912.809369250921</v>
+        <v>1970.651981619932</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>163.3517820423938</v>
+        <v>176.4113153294204</v>
       </c>
       <c r="G11">
-        <v>-64.63924521655532</v>
+        <v>-69.55075644070131</v>
       </c>
       <c r="H11">
-        <v>1086.935499563193</v>
+        <v>1036.282303092063</v>
       </c>
       <c r="I11">
-        <v>-1223.625185198585</v>
+        <v>-1230.609258067952</v>
       </c>
       <c r="J11">
-        <v>1585.091880098618</v>
+        <v>1503.614300125457</v>
       </c>
       <c r="K11">
-        <v>2151.595287622502</v>
+        <v>2234.583550736862</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>141.3552501718806</v>
+        <v>137.8812392306059</v>
       </c>
       <c r="G12">
-        <v>-48.09221770049389</v>
+        <v>-52.56025562538554</v>
       </c>
       <c r="H12">
-        <v>1195.438471496097</v>
+        <v>1141.67432291758</v>
       </c>
       <c r="I12">
-        <v>-1137.538852652294</v>
+        <v>-1192.596562766596</v>
       </c>
       <c r="J12">
-        <v>1445.082181838045</v>
+        <v>1460.209006921809</v>
       </c>
       <c r="K12">
-        <v>2304.672576034099</v>
+        <v>2354.070604041465</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>125.094229845645</v>
+        <v>127.4679771005756</v>
       </c>
       <c r="G13">
-        <v>-33.88370155985192</v>
+        <v>-32.53013342905487</v>
       </c>
       <c r="H13">
-        <v>1281.295636433584</v>
+        <v>1237.919906135372</v>
       </c>
       <c r="I13">
-        <v>-1161.416174743508</v>
+        <v>-1112.65425796371</v>
       </c>
       <c r="J13">
-        <v>1395.973803744231</v>
+        <v>1436.704548795261</v>
       </c>
       <c r="K13">
-        <v>2384.880154493162</v>
+        <v>2429.496991947399</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>105.0177300607792</v>
+        <v>110.6484739611739</v>
       </c>
       <c r="G14">
-        <v>-17.20496518402911</v>
+        <v>-17.19566434254135</v>
       </c>
       <c r="H14">
-        <v>1299.750050772307</v>
+        <v>1269.409589569398</v>
       </c>
       <c r="I14">
-        <v>-1126.673870452094</v>
+        <v>-1141.963608272489</v>
       </c>
       <c r="J14">
-        <v>1386.710981116308</v>
+        <v>1449.885949148741</v>
       </c>
       <c r="K14">
-        <v>2584.144525926954</v>
+        <v>2760.094599996181</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>95.72079876078429</v>
+        <v>98.24714097117088</v>
       </c>
       <c r="G15">
-        <v>-0.9181493690044978</v>
+        <v>-0.9614309915532194</v>
       </c>
       <c r="H15">
-        <v>1443.27950881695</v>
+        <v>1343.342125592124</v>
       </c>
       <c r="I15">
-        <v>-1023.675956951696</v>
+        <v>-1025.500078164712</v>
       </c>
       <c r="J15">
-        <v>1397.083733309384</v>
+        <v>1385.773490259693</v>
       </c>
       <c r="K15">
-        <v>2723.737754696324</v>
+        <v>2678.520683781179</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>97.33623549908395</v>
+        <v>92.66005945962554</v>
       </c>
       <c r="G16">
-        <v>15.1132817483939</v>
+        <v>16.25263758328039</v>
       </c>
       <c r="H16">
-        <v>1471.41906596642</v>
+        <v>1434.263886961714</v>
       </c>
       <c r="I16">
-        <v>-1009.246343659212</v>
+        <v>-964.6118790739322</v>
       </c>
       <c r="J16">
-        <v>1256.334775753807</v>
+        <v>1266.972098563888</v>
       </c>
       <c r="K16">
-        <v>2917.763084660233</v>
+        <v>2883.396849432209</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.95925577943601</v>
+        <v>87.97161512361205</v>
       </c>
       <c r="G17">
-        <v>33.41056143634379</v>
+        <v>30.85686932459693</v>
       </c>
       <c r="H17">
-        <v>1455.690207060579</v>
+        <v>1402.438652043537</v>
       </c>
       <c r="I17">
-        <v>-953.1378015228302</v>
+        <v>-1013.34180724528</v>
       </c>
       <c r="J17">
-        <v>1292.370746319163</v>
+        <v>1260.433914836249</v>
       </c>
       <c r="K17">
-        <v>2944.77049780296</v>
+        <v>2985.661944340053</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>84.50269165232078</v>
+        <v>84.07527150471527</v>
       </c>
       <c r="G18">
-        <v>50.24147082909251</v>
+        <v>50.96515024543228</v>
       </c>
       <c r="H18">
-        <v>1503.263662697825</v>
+        <v>1527.416870858177</v>
       </c>
       <c r="I18">
-        <v>-904.341058558909</v>
+        <v>-933.9842220163933</v>
       </c>
       <c r="J18">
-        <v>1228.261681897232</v>
+        <v>1169.869972840356</v>
       </c>
       <c r="K18">
-        <v>3048.753186130982</v>
+        <v>3121.291310231245</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>77.18008603706713</v>
+        <v>77.66170354572766</v>
       </c>
       <c r="G19">
-        <v>64.8944876477082</v>
+        <v>62.9407533746479</v>
       </c>
       <c r="H19">
-        <v>1524.76410780654</v>
+        <v>1588.482682750691</v>
       </c>
       <c r="I19">
-        <v>-889.0352454692476</v>
+        <v>-848.0560997951438</v>
       </c>
       <c r="J19">
-        <v>1142.982220892073</v>
+        <v>1135.120335124977</v>
       </c>
       <c r="K19">
-        <v>3248.858411162707</v>
+        <v>3084.630377190022</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>73.50218924304662</v>
+        <v>71.49789352173346</v>
       </c>
       <c r="G20">
-        <v>83.27918232645928</v>
+        <v>81.86213608051438</v>
       </c>
       <c r="H20">
-        <v>1536.936598633348</v>
+        <v>1498.227505530898</v>
       </c>
       <c r="I20">
-        <v>-862.8587877683588</v>
+        <v>-826.2278298241564</v>
       </c>
       <c r="J20">
-        <v>1075.85603583874</v>
+        <v>1114.363116369575</v>
       </c>
       <c r="K20">
-        <v>3278.160670483099</v>
+        <v>3090.008979025369</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>72.97181877597723</v>
+        <v>72.98759579706319</v>
       </c>
       <c r="G21">
-        <v>100.6459330848095</v>
+        <v>98.91580737931531</v>
       </c>
       <c r="H21">
-        <v>1608.576255151409</v>
+        <v>1574.610107637257</v>
       </c>
       <c r="I21">
-        <v>-784.2587842333165</v>
+        <v>-814.2321965284054</v>
       </c>
       <c r="J21">
-        <v>1089.074837619351</v>
+        <v>1120.599911175134</v>
       </c>
       <c r="K21">
-        <v>3246.552605969218</v>
+        <v>3245.906534345136</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.74222634364985</v>
+        <v>68.01464055320579</v>
       </c>
       <c r="G22">
-        <v>117.1639914401485</v>
+        <v>116.5089285273582</v>
       </c>
       <c r="H22">
-        <v>1605.137178748944</v>
+        <v>1658.972291982577</v>
       </c>
       <c r="I22">
-        <v>-752.4625622750812</v>
+        <v>-773.7309863134138</v>
       </c>
       <c r="J22">
-        <v>988.1761349207012</v>
+        <v>1034.629237095003</v>
       </c>
       <c r="K22">
-        <v>3304.822042190157</v>
+        <v>3053.814237660576</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>62.80724375613388</v>
+        <v>67.03222543222117</v>
       </c>
       <c r="G23">
-        <v>136.1258790380161</v>
+        <v>136.3843539030787</v>
       </c>
       <c r="H23">
-        <v>1596.484714658292</v>
+        <v>1559.324317042242</v>
       </c>
       <c r="I23">
-        <v>-711.6607434374406</v>
+        <v>-697.7777066755625</v>
       </c>
       <c r="J23">
-        <v>968.4162127482986</v>
+        <v>1004.13727476869</v>
       </c>
       <c r="K23">
-        <v>3330.4540494482</v>
+        <v>3223.365264220848</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.90188886313062</v>
+        <v>63.71705302101257</v>
       </c>
       <c r="G24">
-        <v>140.48127159095</v>
+        <v>153.2947375216104</v>
       </c>
       <c r="H24">
-        <v>1719.891289098589</v>
+        <v>1651.634698577902</v>
       </c>
       <c r="I24">
-        <v>-629.4550219154785</v>
+        <v>-625.7684290989762</v>
       </c>
       <c r="J24">
-        <v>973.937097961635</v>
+        <v>964.1235348017348</v>
       </c>
       <c r="K24">
-        <v>3179.506239002624</v>
+        <v>3053.725000638335</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.37616488825411</v>
+        <v>59.72748977835415</v>
       </c>
       <c r="G25">
-        <v>164.9442589069247</v>
+        <v>164.4895252792821</v>
       </c>
       <c r="H25">
-        <v>1679.348246670693</v>
+        <v>1750.886944973136</v>
       </c>
       <c r="I25">
-        <v>-593.4388464764799</v>
+        <v>-620.5623188763082</v>
       </c>
       <c r="J25">
-        <v>909.7735238498932</v>
+        <v>879.8588697912521</v>
       </c>
       <c r="K25">
-        <v>3231.642728315401</v>
+        <v>3172.769035814574</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>62.28379180255624</v>
+        <v>60.5366052022893</v>
       </c>
       <c r="G26">
-        <v>176.6113828000753</v>
+        <v>179.5021164623906</v>
       </c>
       <c r="H26">
-        <v>1655.299422756874</v>
+        <v>1723.946956807103</v>
       </c>
       <c r="I26">
-        <v>-538.8807823927766</v>
+        <v>-523.2478560047288</v>
       </c>
       <c r="J26">
-        <v>803.7939584024683</v>
+        <v>808.425033036689</v>
       </c>
       <c r="K26">
-        <v>3212.133876936817</v>
+        <v>2967.240967585385</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.25348858832211</v>
+        <v>56.55356788807364</v>
       </c>
       <c r="G27">
-        <v>198.9111540770161</v>
+        <v>203.0120146798583</v>
       </c>
       <c r="H27">
-        <v>1760.015549605025</v>
+        <v>1699.505676960704</v>
       </c>
       <c r="I27">
-        <v>-473.637604829556</v>
+        <v>-499.9933467281014</v>
       </c>
       <c r="J27">
-        <v>792.4167895674237</v>
+        <v>767.3246931081945</v>
       </c>
       <c r="K27">
-        <v>3087.768735623785</v>
+        <v>3049.511926504656</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>58.83618146723848</v>
+        <v>56.27226509329508</v>
       </c>
       <c r="G28">
-        <v>214.8898812130523</v>
+        <v>206.4308281276213</v>
       </c>
       <c r="H28">
-        <v>1740.644871080518</v>
+        <v>1809.310006570434</v>
       </c>
       <c r="I28">
-        <v>-417.9077813294705</v>
+        <v>-436.3665313403845</v>
       </c>
       <c r="J28">
-        <v>730.1264807843825</v>
+        <v>757.5064707350791</v>
       </c>
       <c r="K28">
-        <v>3058.871448994918</v>
+        <v>2920.789484602028</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>55.20722200966383</v>
+        <v>54.3342344803329</v>
       </c>
       <c r="G29">
-        <v>230.5211465551598</v>
+        <v>229.0473182622259</v>
       </c>
       <c r="H29">
-        <v>1701.850761385901</v>
+        <v>1689.597047392531</v>
       </c>
       <c r="I29">
-        <v>-364.5102567951035</v>
+        <v>-369.8130962938442</v>
       </c>
       <c r="J29">
-        <v>713.4664879044503</v>
+        <v>696.7288147202012</v>
       </c>
       <c r="K29">
-        <v>2813.46055814545</v>
+        <v>2891.005149053817</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.62508840365819</v>
+        <v>53.66239691389379</v>
       </c>
       <c r="G30">
-        <v>254.6257205151</v>
+        <v>254.202662859711</v>
       </c>
       <c r="H30">
-        <v>1755.43935717039</v>
+        <v>1668.524907492215</v>
       </c>
       <c r="I30">
-        <v>-326.7063991068134</v>
+        <v>-318.8740376598046</v>
       </c>
       <c r="J30">
-        <v>642.6830253049986</v>
+        <v>660.10849594379</v>
       </c>
       <c r="K30">
-        <v>2831.254273888353</v>
+        <v>2740.7622369235</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.98212680543593</v>
+        <v>53.09160830985979</v>
       </c>
       <c r="G31">
-        <v>261.5834190863653</v>
+        <v>262.3024395077839</v>
       </c>
       <c r="H31">
-        <v>1772.743001961077</v>
+        <v>1774.735003982981</v>
       </c>
       <c r="I31">
-        <v>-275.6287068998548</v>
+        <v>-261.2440415751806</v>
       </c>
       <c r="J31">
-        <v>588.235045643841</v>
+        <v>575.1730269393352</v>
       </c>
       <c r="K31">
-        <v>2641.065475406878</v>
+        <v>2717.250177393588</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.69570899884385</v>
+        <v>50.51176959809909</v>
       </c>
       <c r="G32">
-        <v>285.7705229483967</v>
+        <v>291.3425172939285</v>
       </c>
       <c r="H32">
-        <v>1761.651603554688</v>
+        <v>1696.612587697287</v>
       </c>
       <c r="I32">
-        <v>-203.0882891745121</v>
+        <v>-211.7055224221364</v>
       </c>
       <c r="J32">
-        <v>564.7430225168738</v>
+        <v>515.0891356462708</v>
       </c>
       <c r="K32">
-        <v>2626.648305348856</v>
+        <v>2470.250425676067</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.37694964800599</v>
+        <v>50.19919407671165</v>
       </c>
       <c r="G33">
-        <v>281.9514346504345</v>
+        <v>287.1160180854773</v>
       </c>
       <c r="H33">
-        <v>1763.516243760752</v>
+        <v>1806.448169671625</v>
       </c>
       <c r="I33">
-        <v>-139.8382798368606</v>
+        <v>-148.6070321540587</v>
       </c>
       <c r="J33">
-        <v>486.302259526881</v>
+        <v>483.5850710903882</v>
       </c>
       <c r="K33">
-        <v>2365.082418194891</v>
+        <v>2448.547181274065</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.18829732908625</v>
+        <v>51.42739665816124</v>
       </c>
       <c r="G34">
-        <v>313.0507449492913</v>
+        <v>304.8742380794116</v>
       </c>
       <c r="H34">
-        <v>1846.821179053529</v>
+        <v>1879.326358511264</v>
       </c>
       <c r="I34">
-        <v>-85.29125507288788</v>
+        <v>-83.95431241084765</v>
       </c>
       <c r="J34">
-        <v>447.0222675627666</v>
+        <v>432.9500857582131</v>
       </c>
       <c r="K34">
-        <v>2286.920485412738</v>
+        <v>2166.363850626387</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.89987703657744</v>
+        <v>47.04434876985498</v>
       </c>
       <c r="G35">
-        <v>323.9444176329644</v>
+        <v>335.3445532831512</v>
       </c>
       <c r="H35">
-        <v>1849.672240814649</v>
+        <v>1827.46420822978</v>
       </c>
       <c r="I35">
-        <v>-18.51802972924906</v>
+        <v>-19.06917355557619</v>
       </c>
       <c r="J35">
-        <v>396.0054419884441</v>
+        <v>399.6064288060185</v>
       </c>
       <c r="K35">
-        <v>2103.72316835511</v>
+        <v>1946.452074042771</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.95060075963843</v>
+        <v>46.90857057050368</v>
       </c>
       <c r="G36">
-        <v>349.8291976426456</v>
+        <v>348.620611189926</v>
       </c>
       <c r="H36">
-        <v>1918.757081201382</v>
+        <v>1908.25760013638</v>
       </c>
       <c r="I36">
-        <v>47.97282935664392</v>
+        <v>48.06247160229994</v>
       </c>
       <c r="J36">
-        <v>353.633821012062</v>
+        <v>354.8454561110367</v>
       </c>
       <c r="K36">
-        <v>1748.546404268279</v>
+        <v>1906.541215163575</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.62701592577604</v>
+        <v>46.0853780650308</v>
       </c>
       <c r="G37">
-        <v>358.3308679409183</v>
+        <v>377.9357749353401</v>
       </c>
       <c r="H37">
-        <v>1860.912203952874</v>
+        <v>1833.515944331556</v>
       </c>
       <c r="I37">
-        <v>118.529219261133</v>
+        <v>112.7355287778363</v>
       </c>
       <c r="J37">
-        <v>308.0170187110586</v>
+        <v>290.9912124427822</v>
       </c>
       <c r="K37">
-        <v>1549.10754645131</v>
+        <v>1645.500951933857</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.94642211969279</v>
+        <v>46.28809808784754</v>
       </c>
       <c r="G38">
-        <v>388.5143326890213</v>
+        <v>368.0816922773709</v>
       </c>
       <c r="H38">
-        <v>1767.289644652666</v>
+        <v>1822.842973795614</v>
       </c>
       <c r="I38">
-        <v>184.4512489501389</v>
+        <v>193.6341740081651</v>
       </c>
       <c r="J38">
-        <v>245.491141871847</v>
+        <v>258.1031145058486</v>
       </c>
       <c r="K38">
-        <v>1335.590418590846</v>
+        <v>1337.804608321391</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.22550612978181</v>
+        <v>47.12978179649992</v>
       </c>
       <c r="G39">
-        <v>408.4972718539972</v>
+        <v>411.6301798059594</v>
       </c>
       <c r="H39">
-        <v>1848.473458021425</v>
+        <v>1943.06952785315</v>
       </c>
       <c r="I39">
-        <v>253.6170694435065</v>
+        <v>259.1795299785076</v>
       </c>
       <c r="J39">
-        <v>192.6045899649808</v>
+        <v>195.6493744044984</v>
       </c>
       <c r="K39">
-        <v>1176.127418644617</v>
+        <v>1195.866531118054</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>46.0626251864413</v>
+        <v>43.12123189708693</v>
       </c>
       <c r="G40">
-        <v>409.9183511144504</v>
+        <v>427.7460670209135</v>
       </c>
       <c r="H40">
-        <v>1887.94245965926</v>
+        <v>1817.770847376961</v>
       </c>
       <c r="I40">
-        <v>335.4505697753822</v>
+        <v>328.6702421608726</v>
       </c>
       <c r="J40">
-        <v>144.813225524394</v>
+        <v>153.82220161619</v>
       </c>
       <c r="K40">
-        <v>854.8944498397715</v>
+        <v>936.1278681466779</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.38578515987995</v>
+        <v>43.51355575332676</v>
       </c>
       <c r="G41">
-        <v>408.3760996276775</v>
+        <v>443.6859971777494</v>
       </c>
       <c r="H41">
-        <v>1891.868424649558</v>
+        <v>1915.591544349448</v>
       </c>
       <c r="I41">
-        <v>387.4858043615852</v>
+        <v>385.1459932161014</v>
       </c>
       <c r="J41">
-        <v>104.2252781694213</v>
+        <v>103.2173155597197</v>
       </c>
       <c r="K41">
-        <v>627.939479815499</v>
+        <v>635.4765894388596</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.97956034459519</v>
+        <v>40.76027639010338</v>
       </c>
       <c r="G42">
-        <v>446.4667211763663</v>
+        <v>434.9481797382666</v>
       </c>
       <c r="H42">
-        <v>1930.634275111031</v>
+        <v>1943.169256990525</v>
       </c>
       <c r="I42">
-        <v>476.5269030572447</v>
+        <v>458.8897768438488</v>
       </c>
       <c r="J42">
-        <v>55.7659140292664</v>
+        <v>52.98153232802223</v>
       </c>
       <c r="K42">
-        <v>330.546161476896</v>
+        <v>337.8504575898658</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.03267579555195</v>
+        <v>42.60738634225273</v>
       </c>
       <c r="G43">
-        <v>470.4694989640774</v>
+        <v>444.9591295552753</v>
       </c>
       <c r="H43">
-        <v>1962.244843289786</v>
+        <v>1939.291042827355</v>
       </c>
       <c r="I43">
-        <v>565.3405133064281</v>
+        <v>554.166053189562</v>
       </c>
       <c r="J43">
-        <v>5.09525276813566</v>
+        <v>5.292444489124485</v>
       </c>
       <c r="K43">
-        <v>32.10130774094068</v>
+        <v>33.35806269365747</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.03869630061549</v>
+        <v>41.17697582018926</v>
       </c>
       <c r="G44">
-        <v>491.646467177578</v>
+        <v>475.979925667039</v>
       </c>
       <c r="H44">
-        <v>1934.458099350277</v>
+        <v>1993.422437819722</v>
       </c>
       <c r="I44">
-        <v>670.0063855339436</v>
+        <v>655.2211405016948</v>
       </c>
       <c r="J44">
-        <v>-42.40277501226698</v>
+        <v>-44.93569469343878</v>
       </c>
       <c r="K44">
-        <v>-278.0988693117018</v>
+        <v>-270.2028905131006</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.51900691811476</v>
+        <v>42.4890608818102</v>
       </c>
       <c r="G45">
-        <v>474.7764031872485</v>
+        <v>505.7608293515334</v>
       </c>
       <c r="H45">
-        <v>1906.893550730424</v>
+        <v>1831.07694407229</v>
       </c>
       <c r="I45">
-        <v>721.5921670306707</v>
+        <v>736.3940626310301</v>
       </c>
       <c r="J45">
-        <v>-88.02590862670499</v>
+        <v>-91.75675645589703</v>
       </c>
       <c r="K45">
-        <v>-645.5730727893977</v>
+        <v>-593.443144612904</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.89386670639147</v>
+        <v>41.08183053607446</v>
       </c>
       <c r="G46">
-        <v>501.4266930768293</v>
+        <v>516.3484214859242</v>
       </c>
       <c r="H46">
-        <v>1907.494373732567</v>
+        <v>1877.754388779412</v>
       </c>
       <c r="I46">
-        <v>779.163892516812</v>
+        <v>825.3650219822953</v>
       </c>
       <c r="J46">
-        <v>-139.0087129919698</v>
+        <v>-137.5516980413871</v>
       </c>
       <c r="K46">
-        <v>-930.2513952614146</v>
+        <v>-941.2092852461752</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.03757534456314</v>
+        <v>41.01040810011328</v>
       </c>
       <c r="G47">
-        <v>530.0054656192234</v>
+        <v>506.1535018002477</v>
       </c>
       <c r="H47">
-        <v>1937.690611754495</v>
+        <v>1852.711038430026</v>
       </c>
       <c r="I47">
-        <v>874.8021323691379</v>
+        <v>919.9679273361343</v>
       </c>
       <c r="J47">
-        <v>-185.2764157795587</v>
+        <v>-182.5974561131868</v>
       </c>
       <c r="K47">
-        <v>-1352.559517280817</v>
+        <v>-1306.574873132087</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>41.18602502029142</v>
+        <v>40.15939720168615</v>
       </c>
       <c r="G48">
-        <v>525.4641401916707</v>
+        <v>562.3127383077973</v>
       </c>
       <c r="H48">
-        <v>1923.652528840367</v>
+        <v>1884.144198003437</v>
       </c>
       <c r="I48">
-        <v>991.2217678565552</v>
+        <v>1010.859245287191</v>
       </c>
       <c r="J48">
-        <v>-245.9809861057164</v>
+        <v>-240.1050447392594</v>
       </c>
       <c r="K48">
-        <v>-1758.027789806486</v>
+        <v>-1625.117638827322</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.75575173372293</v>
+        <v>39.07070321184475</v>
       </c>
       <c r="G49">
-        <v>549.6164050714385</v>
+        <v>551.7075279014365</v>
       </c>
       <c r="H49">
-        <v>1913.550643902052</v>
+        <v>1873.038342189437</v>
       </c>
       <c r="I49">
-        <v>1068.974304460511</v>
+        <v>1046.485983304984</v>
       </c>
       <c r="J49">
-        <v>-272.8209469941057</v>
+        <v>-291.4981360077383</v>
       </c>
       <c r="K49">
-        <v>-2108.261792444399</v>
+        <v>-1997.844288992242</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.02266629088712</v>
+        <v>39.05277667608718</v>
       </c>
       <c r="G50">
-        <v>602.5819229060901</v>
+        <v>579.0790056516292</v>
       </c>
       <c r="H50">
-        <v>1878.082883500858</v>
+        <v>1880.244414706716</v>
       </c>
       <c r="I50">
-        <v>1209.148027961288</v>
+        <v>1168.295193429833</v>
       </c>
       <c r="J50">
-        <v>-319.4093522352928</v>
+        <v>-351.1703398439824</v>
       </c>
       <c r="K50">
-        <v>-2586.570047068803</v>
+        <v>-2560.015877313602</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.69948264943724</v>
+        <v>37.2907934117882</v>
       </c>
       <c r="G51">
-        <v>584.3111530686452</v>
+        <v>566.0944730018116</v>
       </c>
       <c r="H51">
-        <v>1955.724504785972</v>
+        <v>1952.166972184513</v>
       </c>
       <c r="I51">
-        <v>1236.921573786258</v>
+        <v>1296.771317272004</v>
       </c>
       <c r="J51">
-        <v>-372.1540297339961</v>
+        <v>-394.3449088540607</v>
       </c>
       <c r="K51">
-        <v>-2974.581697101033</v>
+        <v>-2962.618372288644</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.97926180329327</v>
+        <v>36.01189242923432</v>
       </c>
       <c r="G52">
-        <v>604.502900833364</v>
+        <v>635.0489829142954</v>
       </c>
       <c r="H52">
-        <v>2041.017828100254</v>
+        <v>2013.590415284119</v>
       </c>
       <c r="I52">
-        <v>1314.154450672577</v>
+        <v>1351.801761979722</v>
       </c>
       <c r="J52">
-        <v>-425.4340736509736</v>
+        <v>-430.821379042453</v>
       </c>
       <c r="K52">
-        <v>-3305.83501780825</v>
+        <v>-3324.056997779423</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.9580987457898</v>
+        <v>35.41549249645183</v>
       </c>
       <c r="G53">
-        <v>637.337447456199</v>
+        <v>628.6368684390579</v>
       </c>
       <c r="H53">
-        <v>1982.760404710348</v>
+        <v>1945.394826729028</v>
       </c>
       <c r="I53">
-        <v>1504.243780106059</v>
+        <v>1472.061499425793</v>
       </c>
       <c r="J53">
-        <v>-496.1194374885939</v>
+        <v>-457.2898497175865</v>
       </c>
       <c r="K53">
-        <v>-3721.035147638238</v>
+        <v>-3676.201662180961</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.54584986395682</v>
+        <v>36.61345187893036</v>
       </c>
       <c r="G54">
-        <v>648.8589267348877</v>
+        <v>673.4484195512556</v>
       </c>
       <c r="H54">
-        <v>1986.202739120708</v>
+        <v>2011.527628660292</v>
       </c>
       <c r="I54">
-        <v>1513.505153402285</v>
+        <v>1631.749733227198</v>
       </c>
       <c r="J54">
-        <v>-530.5642851411686</v>
+        <v>-527.6134826726201</v>
       </c>
       <c r="K54">
-        <v>-4408.701283551189</v>
+        <v>-4289.309706872267</v>
       </c>
     </row>
   </sheetData>
